--- a/data/financial_statements/socf/CFG.xlsx
+++ b/data/financial_statements/socf/CFG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1053 +587,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:40">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
+        <v>-1420000000</v>
+      </c>
+      <c r="C2">
         <v>636000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>364000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>420000000</v>
-      </c>
-      <c r="E2">
-        <v>530000000</v>
       </c>
       <c r="F2">
         <v>530000000</v>
       </c>
       <c r="G2">
+        <v>530000000</v>
+      </c>
+      <c r="H2">
         <v>648000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>611000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>456000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>314000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>253000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>34000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>450000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>449000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>453000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>439000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>465000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>443000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>425000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>388000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>666000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>348000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>318000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>320000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>282000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>297000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>243000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>223000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>221000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>220000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>190000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>209000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>197000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>189000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>313000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>166000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>152000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>144000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>-3722000000</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:40">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3">
         <v>121000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>260000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>67000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>172000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>136000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>165000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>152000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>159000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>103000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>112000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>204000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>193000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>165000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>141000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>134000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>132000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>114000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>121000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>122000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>116000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>113000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>134000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>124000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>122000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>132000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>134000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>127000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>125000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>120000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>126000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>117000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>83000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>129000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>112000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>108000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>116000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>117000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>244000000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:40">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4">
         <v>185000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>359000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-15000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-657000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-9000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-85000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-41000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>151000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>395000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>389000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>487000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>208000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>78000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>91000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>90000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>147000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>93000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>128000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>77000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-41000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>59000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-32000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>146000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>98000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>127000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>184000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>103000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>295000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>72000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>102000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>42000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>177000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>83000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-237000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>174000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>228000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4329000000</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:40">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
         <v>184000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>322000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>898000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>462000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>301000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>944000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-622000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>687000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>82000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>123000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-860000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>25000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-226000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-587000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>116000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>151000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-105000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-61000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>41000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>20000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>63000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-10000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>160000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-120000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-16000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-108000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>-5000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>74000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>15000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-38000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-33000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>5000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-46000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-52000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>45000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>122000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>217000000</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:40">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
         <v>1874000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-3181000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>184000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>598000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>322000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-1092000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-790000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-587000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-236000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-963000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-1192000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-149000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-73000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-307000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-335000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-753000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>98000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>76000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>-328000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>330000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-726000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>103000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-90000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-46000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-123000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-74000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-317000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-111000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>37000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-237000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-279000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-169000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>185000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>207000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-370000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>327000000</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK7">
+    <row r="7" spans="1:40">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL7">
         <v>4694000000</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2816000000</v>
+    <row r="8" spans="1:40">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C8">
-        <v>-2198000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D8">
-        <v>656000000</v>
+        <v>-1876000000</v>
       </c>
       <c r="E8">
-        <v>643000000</v>
+        <v>1554000000</v>
       </c>
       <c r="F8">
-        <v>979000000</v>
+        <v>1105000000</v>
       </c>
       <c r="G8">
+        <v>1280000000</v>
+      </c>
+      <c r="H8">
         <v>580000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-690000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>866000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>658000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-86000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-1327000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>727000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>393000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>105000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>472000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>560000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-208000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>711000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>704000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>433000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>913000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-316000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>853000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>292000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>494000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>330000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>374000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>398000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>316000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>417000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>98000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>183000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>186000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>321000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>700000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1013000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>241000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1395000000</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:40">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
         <v>-85000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-5000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-51000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-65000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-27000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-22000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-10000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-119000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>54000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-37000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-16000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-48000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-37000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-25000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>15000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-75000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-63000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-62000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-32000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-138000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-51000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-50000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-14000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-94000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-22000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-14000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-5000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-64000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-14000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-21000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-7000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-119000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-11000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-1000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-7000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-17000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-36000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-82000000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R10">
+    <row r="10" spans="1:40">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10">
         <v>-59000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-75000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-57000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-49000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-55000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-44000000</v>
-      </c>
-      <c r="X10">
-        <v>-39000000</v>
       </c>
       <c r="Y10">
         <v>-39000000</v>
       </c>
       <c r="Z10">
+        <v>-39000000</v>
+      </c>
+      <c r="AA10">
         <v>-41000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-40000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-45000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-36000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-50000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-45000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-47000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-54000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-36000000</v>
-      </c>
-      <c r="AI10">
-        <v>-40000000</v>
       </c>
       <c r="AJ10">
         <v>-40000000</v>
       </c>
-      <c r="AL10">
+      <c r="AK10">
+        <v>-40000000</v>
+      </c>
+      <c r="AM10">
         <v>-54000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-75000000</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:40">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
         <v>-1000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-91000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-143000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-151000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-14000000</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1530,11 +1644,11 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>-3000000</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
@@ -1542,1249 +1656,1249 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>-129000000</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>-533000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
         <v>208000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>216000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-369000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-27000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>112000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-93000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-2000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>22000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>147000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-195000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-139000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>28000000</v>
-      </c>
-      <c r="O12">
-        <v>-19000000</v>
       </c>
       <c r="P12">
         <v>-19000000</v>
       </c>
       <c r="Q12">
+        <v>-19000000</v>
+      </c>
+      <c r="R12">
         <v>-6000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-28000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>28000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>50000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>95000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>146000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-82000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>88000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>281000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>7000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-193000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-178000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>7000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-177000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>429000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-245000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-78000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>17000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-10000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-66000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-60000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1050000000</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13">
         <v>-185000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-4356000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-559000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-1100000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-242000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>222000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-1680000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-559000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>151000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>523000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-961000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>832000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>300000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>44000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-238000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>431000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>289000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-166000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-46000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>127000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-305000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>463000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-398000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-413000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-1314000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-414000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>320000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>99000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1767000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-1195000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-250000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>321000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>191000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>173000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-3426000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-3888000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>2103000000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-5000000</v>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>-645000000</v>
+        <v>946000000</v>
       </c>
       <c r="D14">
-        <v>-106000000</v>
+        <v>-5212000000</v>
       </c>
       <c r="E14">
+        <v>-2792000000</v>
+      </c>
+      <c r="F14">
+        <v>-6156000000</v>
+      </c>
+      <c r="G14">
+        <v>-1113000000</v>
+      </c>
+      <c r="H14">
+        <v>-738000000</v>
+      </c>
+      <c r="I14">
+        <v>620000000</v>
+      </c>
+      <c r="J14">
+        <v>19000000</v>
+      </c>
+      <c r="K14">
+        <v>1748000000</v>
+      </c>
+      <c r="L14">
+        <v>878000000</v>
+      </c>
+      <c r="M14">
+        <v>-7805000000</v>
+      </c>
+      <c r="N14">
+        <v>-2734000000</v>
+      </c>
+      <c r="O14">
+        <v>-789000000</v>
+      </c>
+      <c r="P14">
+        <v>183000000</v>
+      </c>
+      <c r="Q14">
+        <v>-1100000000</v>
+      </c>
+      <c r="R14">
+        <v>-2555000000</v>
+      </c>
+      <c r="S14">
+        <v>-1296000000</v>
+      </c>
+      <c r="T14">
+        <v>-1980000000</v>
+      </c>
+      <c r="U14">
+        <v>-1033000000</v>
+      </c>
+      <c r="V14">
+        <v>-95000000</v>
+      </c>
+      <c r="W14">
+        <v>-1774000000</v>
+      </c>
+      <c r="X14">
+        <v>-1029000000</v>
+      </c>
+      <c r="Y14">
+        <v>-780000000</v>
+      </c>
+      <c r="Z14">
+        <v>-2362000000</v>
+      </c>
+      <c r="AA14">
+        <v>-1692000000</v>
+      </c>
+      <c r="AB14">
+        <v>-2655000000</v>
+      </c>
+      <c r="AC14">
+        <v>-2413000000</v>
+      </c>
+      <c r="AD14">
+        <v>-1715000000</v>
+      </c>
+      <c r="AE14">
+        <v>-752000000</v>
+      </c>
+      <c r="AF14">
+        <v>-2398000000</v>
+      </c>
+      <c r="AG14">
+        <v>-1191000000</v>
+      </c>
+      <c r="AH14">
+        <v>-2937000000</v>
+      </c>
+      <c r="AI14">
+        <v>-1958000000</v>
+      </c>
+      <c r="AJ14">
+        <v>-696000000</v>
+      </c>
+      <c r="AK14">
+        <v>-1497000000</v>
+      </c>
+      <c r="AL14">
+        <v>-1849000000</v>
+      </c>
+      <c r="AM14">
+        <v>-678000000</v>
+      </c>
+      <c r="AN14">
+        <v>1938000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>883000000</v>
+      </c>
+      <c r="D15">
+        <v>-9448000000</v>
+      </c>
+      <c r="E15">
+        <v>-3914000000</v>
+      </c>
+      <c r="F15">
+        <v>-7499000000</v>
+      </c>
+      <c r="G15">
+        <v>-1284000000</v>
+      </c>
+      <c r="H15">
+        <v>-631000000</v>
+      </c>
+      <c r="I15">
+        <v>-1072000000</v>
+      </c>
+      <c r="J15">
+        <v>-637000000</v>
+      </c>
+      <c r="K15">
+        <v>2100000000</v>
+      </c>
+      <c r="L15">
+        <v>1169000000</v>
+      </c>
+      <c r="M15">
+        <v>-8768000000</v>
+      </c>
+      <c r="N15">
+        <v>-2089000000</v>
+      </c>
+      <c r="O15">
+        <v>-498000000</v>
+      </c>
+      <c r="P15">
+        <v>183000000</v>
+      </c>
+      <c r="Q15">
+        <v>-1471000000</v>
+      </c>
+      <c r="R15">
+        <v>-2014000000</v>
+      </c>
+      <c r="S15">
+        <v>-1690000000</v>
+      </c>
+      <c r="T15">
+        <v>-2255000000</v>
+      </c>
+      <c r="U15">
+        <v>-1118000000</v>
+      </c>
+      <c r="V15">
+        <v>-60000000</v>
+      </c>
+      <c r="W15">
+        <v>-2039000000</v>
+      </c>
+      <c r="X15">
+        <v>-742000000</v>
+      </c>
+      <c r="Y15">
+        <v>-1143000000</v>
+      </c>
+      <c r="Z15">
+        <v>-2627000000</v>
+      </c>
+      <c r="AA15">
+        <v>-3062000000</v>
+      </c>
+      <c r="AB15">
+        <v>-3316000000</v>
+      </c>
+      <c r="AC15">
+        <v>-2321000000</v>
+      </c>
+      <c r="AD15">
+        <v>-1709000000</v>
+      </c>
+      <c r="AE15">
+        <v>774000000</v>
+      </c>
+      <c r="AF15">
+        <v>-3230000000</v>
+      </c>
+      <c r="AG15">
+        <v>-1740000000</v>
+      </c>
+      <c r="AH15">
+        <v>-2867000000</v>
+      </c>
+      <c r="AI15">
+        <v>-1797000000</v>
+      </c>
+      <c r="AJ15">
+        <v>-574000000</v>
+      </c>
+      <c r="AK15">
+        <v>-5036000000</v>
+      </c>
+      <c r="AL15">
+        <v>-2671000000</v>
+      </c>
+      <c r="AM15">
+        <v>-4716000000</v>
+      </c>
+      <c r="AN15">
+        <v>4934000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>-1635000000</v>
+      </c>
+      <c r="D16">
+        <v>8191000000</v>
+      </c>
+      <c r="E16">
+        <v>-1056000000</v>
+      </c>
+      <c r="F16">
+        <v>90000000</v>
+      </c>
+      <c r="G16">
+        <v>-56000000</v>
+      </c>
+      <c r="H16">
+        <v>-1360000000</v>
+      </c>
+      <c r="I16">
+        <v>-181000000</v>
+      </c>
+      <c r="J16">
+        <v>-760000000</v>
+      </c>
+      <c r="K16">
+        <v>-96000000</v>
+      </c>
+      <c r="L16">
+        <v>-8042000000</v>
+      </c>
+      <c r="M16">
+        <v>3080000000</v>
+      </c>
+      <c r="N16">
+        <v>445000000</v>
+      </c>
+      <c r="O16">
+        <v>882000000</v>
+      </c>
+      <c r="P16">
+        <v>508000000</v>
+      </c>
+      <c r="Q16">
+        <v>-4890000000</v>
+      </c>
+      <c r="R16">
+        <v>-826000000</v>
+      </c>
+      <c r="S16">
+        <v>2551000000</v>
+      </c>
+      <c r="T16">
+        <v>175000000</v>
+      </c>
+      <c r="U16">
+        <v>896000000</v>
+      </c>
+      <c r="V16">
+        <v>-884000000</v>
+      </c>
+      <c r="W16">
+        <v>-227000000</v>
+      </c>
+      <c r="X16">
+        <v>-61000000</v>
+      </c>
+      <c r="Y16">
+        <v>-1508000000</v>
+      </c>
+      <c r="Z16">
+        <v>1896000000</v>
+      </c>
+      <c r="AA16">
+        <v>70000000</v>
+      </c>
+      <c r="AB16">
+        <v>1206000000</v>
+      </c>
+      <c r="AC16">
+        <v>703000000</v>
+      </c>
+      <c r="AD16">
+        <v>2020000000</v>
+      </c>
+      <c r="AE16">
+        <v>-3144000000</v>
+      </c>
+      <c r="AF16">
+        <v>-891000000</v>
+      </c>
+      <c r="AG16">
+        <v>142000000</v>
+      </c>
+      <c r="AH16">
+        <v>1216000000</v>
+      </c>
+      <c r="AI16">
+        <v>-2280000000</v>
+      </c>
+      <c r="AJ16">
+        <v>3808000000</v>
+      </c>
+      <c r="AK16">
+        <v>3986000000</v>
+      </c>
+      <c r="AL16">
+        <v>1017000000</v>
+      </c>
+      <c r="AM16">
+        <v>385000000</v>
+      </c>
+      <c r="AN16">
+        <v>-691000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-2000000</v>
+      </c>
+      <c r="F17">
+        <v>-200000000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>-95000000</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>-270000000</v>
+      </c>
+      <c r="N17">
+        <v>-400000000</v>
+      </c>
+      <c r="O17">
+        <v>-500000000</v>
+      </c>
+      <c r="P17">
         <v>-120000000</v>
       </c>
-      <c r="F14">
-        <v>-82000000</v>
-      </c>
-      <c r="G14">
-        <v>-738000000</v>
-      </c>
-      <c r="H14">
-        <v>620000000</v>
-      </c>
-      <c r="I14">
-        <v>19000000</v>
-      </c>
-      <c r="J14">
-        <v>1748000000</v>
-      </c>
-      <c r="K14">
-        <v>878000000</v>
-      </c>
-      <c r="L14">
-        <v>-7805000000</v>
-      </c>
-      <c r="M14">
-        <v>-2734000000</v>
-      </c>
-      <c r="N14">
-        <v>-789000000</v>
-      </c>
-      <c r="O14">
-        <v>183000000</v>
-      </c>
-      <c r="P14">
-        <v>-1100000000</v>
-      </c>
-      <c r="Q14">
-        <v>-2555000000</v>
-      </c>
-      <c r="R14">
-        <v>-1296000000</v>
-      </c>
-      <c r="S14">
-        <v>-1980000000</v>
-      </c>
-      <c r="T14">
-        <v>-1033000000</v>
-      </c>
-      <c r="U14">
-        <v>-95000000</v>
-      </c>
-      <c r="V14">
-        <v>-1774000000</v>
-      </c>
-      <c r="W14">
-        <v>-1029000000</v>
-      </c>
-      <c r="X14">
-        <v>-780000000</v>
-      </c>
-      <c r="Y14">
-        <v>-2362000000</v>
-      </c>
-      <c r="Z14">
-        <v>-1692000000</v>
-      </c>
-      <c r="AA14">
-        <v>-2655000000</v>
-      </c>
-      <c r="AB14">
-        <v>-2413000000</v>
-      </c>
-      <c r="AC14">
-        <v>-1715000000</v>
-      </c>
-      <c r="AD14">
-        <v>-752000000</v>
-      </c>
-      <c r="AE14">
-        <v>-2398000000</v>
-      </c>
-      <c r="AF14">
-        <v>-1191000000</v>
-      </c>
-      <c r="AG14">
-        <v>-2937000000</v>
-      </c>
-      <c r="AH14">
-        <v>-1958000000</v>
-      </c>
-      <c r="AI14">
-        <v>-696000000</v>
-      </c>
-      <c r="AJ14">
-        <v>-1497000000</v>
-      </c>
-      <c r="AK14">
-        <v>-1849000000</v>
-      </c>
-      <c r="AL14">
-        <v>-678000000</v>
-      </c>
-      <c r="AM14">
-        <v>1938000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1067000000</v>
-      </c>
-      <c r="C15">
-        <v>-9126000000</v>
-      </c>
-      <c r="D15">
-        <v>-3016000000</v>
-      </c>
-      <c r="E15">
-        <v>-7037000000</v>
-      </c>
-      <c r="F15">
-        <v>-983000000</v>
-      </c>
-      <c r="G15">
-        <v>-631000000</v>
-      </c>
-      <c r="H15">
-        <v>-1072000000</v>
-      </c>
-      <c r="I15">
-        <v>-637000000</v>
-      </c>
-      <c r="J15">
-        <v>2100000000</v>
-      </c>
-      <c r="K15">
-        <v>1169000000</v>
-      </c>
-      <c r="L15">
-        <v>-8768000000</v>
-      </c>
-      <c r="M15">
-        <v>-2089000000</v>
-      </c>
-      <c r="N15">
-        <v>-498000000</v>
-      </c>
-      <c r="O15">
-        <v>183000000</v>
-      </c>
-      <c r="P15">
-        <v>-1471000000</v>
-      </c>
-      <c r="Q15">
-        <v>-2014000000</v>
-      </c>
-      <c r="R15">
-        <v>-1690000000</v>
-      </c>
-      <c r="S15">
-        <v>-2255000000</v>
-      </c>
-      <c r="T15">
-        <v>-1118000000</v>
-      </c>
-      <c r="U15">
-        <v>-60000000</v>
-      </c>
-      <c r="V15">
-        <v>-2039000000</v>
-      </c>
-      <c r="W15">
-        <v>-742000000</v>
-      </c>
-      <c r="X15">
-        <v>-1143000000</v>
-      </c>
-      <c r="Y15">
-        <v>-2627000000</v>
-      </c>
-      <c r="Z15">
-        <v>-3062000000</v>
-      </c>
-      <c r="AA15">
-        <v>-3316000000</v>
-      </c>
-      <c r="AB15">
-        <v>-2321000000</v>
-      </c>
-      <c r="AC15">
-        <v>-1709000000</v>
-      </c>
-      <c r="AD15">
-        <v>774000000</v>
-      </c>
-      <c r="AE15">
-        <v>-3230000000</v>
-      </c>
-      <c r="AF15">
-        <v>-1740000000</v>
-      </c>
-      <c r="AG15">
-        <v>-2867000000</v>
-      </c>
-      <c r="AH15">
-        <v>-1797000000</v>
-      </c>
-      <c r="AI15">
-        <v>-574000000</v>
-      </c>
-      <c r="AJ15">
-        <v>-5036000000</v>
-      </c>
-      <c r="AK15">
-        <v>-2671000000</v>
-      </c>
-      <c r="AL15">
-        <v>-4716000000</v>
-      </c>
-      <c r="AM15">
-        <v>4934000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-1635000000</v>
-      </c>
-      <c r="C16">
-        <v>8191000000</v>
-      </c>
-      <c r="D16">
-        <v>-1056000000</v>
-      </c>
-      <c r="E16">
-        <v>90000000</v>
-      </c>
-      <c r="F16">
-        <v>-56000000</v>
-      </c>
-      <c r="G16">
-        <v>-1360000000</v>
-      </c>
-      <c r="H16">
-        <v>-181000000</v>
-      </c>
-      <c r="I16">
-        <v>-760000000</v>
-      </c>
-      <c r="J16">
-        <v>-96000000</v>
-      </c>
-      <c r="K16">
-        <v>-8042000000</v>
-      </c>
-      <c r="L16">
-        <v>3080000000</v>
-      </c>
-      <c r="M16">
-        <v>445000000</v>
-      </c>
-      <c r="N16">
-        <v>882000000</v>
-      </c>
-      <c r="O16">
-        <v>508000000</v>
-      </c>
-      <c r="P16">
-        <v>-4890000000</v>
-      </c>
-      <c r="Q16">
-        <v>-826000000</v>
-      </c>
-      <c r="R16">
-        <v>2551000000</v>
-      </c>
-      <c r="S16">
-        <v>175000000</v>
-      </c>
-      <c r="T16">
-        <v>896000000</v>
-      </c>
-      <c r="U16">
-        <v>-884000000</v>
-      </c>
-      <c r="V16">
-        <v>-227000000</v>
-      </c>
-      <c r="W16">
-        <v>-61000000</v>
-      </c>
-      <c r="X16">
-        <v>-1508000000</v>
-      </c>
-      <c r="Y16">
-        <v>1896000000</v>
-      </c>
-      <c r="Z16">
-        <v>70000000</v>
-      </c>
-      <c r="AA16">
-        <v>1206000000</v>
-      </c>
-      <c r="AB16">
-        <v>703000000</v>
-      </c>
-      <c r="AC16">
-        <v>2020000000</v>
-      </c>
-      <c r="AD16">
-        <v>-3144000000</v>
-      </c>
-      <c r="AE16">
-        <v>-891000000</v>
-      </c>
-      <c r="AF16">
-        <v>142000000</v>
-      </c>
-      <c r="AG16">
-        <v>1216000000</v>
-      </c>
-      <c r="AH16">
-        <v>-2280000000</v>
-      </c>
-      <c r="AI16">
-        <v>3808000000</v>
-      </c>
-      <c r="AJ16">
-        <v>3986000000</v>
-      </c>
-      <c r="AK16">
-        <v>1017000000</v>
-      </c>
-      <c r="AL16">
-        <v>385000000</v>
-      </c>
-      <c r="AM16">
-        <v>-691000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>-2000000</v>
-      </c>
-      <c r="E17">
+      <c r="Q17">
         <v>-200000000</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>-95000000</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>-270000000</v>
-      </c>
-      <c r="M17">
+      <c r="R17">
+        <v>-300000000</v>
+      </c>
+      <c r="S17">
         <v>-400000000</v>
       </c>
-      <c r="N17">
-        <v>-500000000</v>
-      </c>
-      <c r="O17">
-        <v>-120000000</v>
-      </c>
-      <c r="P17">
-        <v>-200000000</v>
-      </c>
-      <c r="Q17">
-        <v>-300000000</v>
-      </c>
-      <c r="R17">
-        <v>-400000000</v>
-      </c>
-      <c r="S17">
+      <c r="T17">
         <v>-150000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-175000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-335000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-225000000</v>
-      </c>
-      <c r="W17">
-        <v>-130000000</v>
       </c>
       <c r="X17">
         <v>-130000000</v>
       </c>
       <c r="Y17">
+        <v>-130000000</v>
+      </c>
+      <c r="Z17">
         <v>-180000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-250000000</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
-        <v>-250000000</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>-250000000</v>
       </c>
-      <c r="AG17">
+      <c r="AF17">
+        <v>-250000000</v>
+      </c>
+      <c r="AH17">
         <v>-334000000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>-250000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>296000000</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>395000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>437000000</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>1000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>292000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>297000000</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>296000000</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>247000000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
         <v>-243000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-218000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-198000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-193000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-200000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-191000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-199000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-193000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-196000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-190000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-191000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-175000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-180000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-163000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-164000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-134000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-129000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-114000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-108000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-96000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-90000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-78000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-72000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-69000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-62000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-71000000</v>
-      </c>
-      <c r="AB19">
-        <v>-53000000</v>
       </c>
       <c r="AC19">
         <v>-53000000</v>
       </c>
       <c r="AD19">
+        <v>-53000000</v>
+      </c>
+      <c r="AE19">
         <v>-60000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-53000000</v>
-      </c>
-      <c r="AF19">
-        <v>-55000000</v>
       </c>
       <c r="AG19">
         <v>-55000000</v>
       </c>
       <c r="AH19">
+        <v>-55000000</v>
+      </c>
+      <c r="AI19">
         <v>-383000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-343000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-25000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-374000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-383000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-428000000</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20">
         <v>-359000000</v>
       </c>
-      <c r="C20">
-        <v>-1000000</v>
-      </c>
       <c r="D20">
-        <v>-23000000</v>
+        <v>-69000000</v>
       </c>
       <c r="E20">
-        <v>-1000000</v>
+        <v>4392000000</v>
       </c>
       <c r="F20">
+        <v>2139000000</v>
+      </c>
+      <c r="G20">
         <v>1585000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-713000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4164000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4241000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-696000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>10142000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8148000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>599000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>710000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>85000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4323000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2500000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>2000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1343000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>628000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1854000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-379000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1501000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2289000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1477000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2070000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3651000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>67000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>673000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1251000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1625000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3283000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>2244000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1807000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-708000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>470000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-1750000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2569000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-3787000000</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
         <v>-2237000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>7902000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3138000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1836000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1079000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-1968000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>3689000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3288000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-988000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>2305000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>10767000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>906000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>912000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>311000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-639000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1537000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>2024000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1550000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>1241000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>539000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-921000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>1232000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>579000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>3124000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>1828000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4786000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>717000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>2640000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-2203000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>678000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>3370000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3071000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-856000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>2757000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>4431000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>1833000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2571000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-4906000000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK22">
+    <row r="22" spans="1:40">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:40">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
         <v>1646000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-3422000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>778000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-4558000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1075000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-2019000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1927000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3517000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1770000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3388000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>672000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-456000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>807000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>599000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-1638000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>83000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>126000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>6000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>827000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>912000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-2047000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>174000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>289000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>789000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-740000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>1800000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-1230000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>1329000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-1113000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>-2135000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1728000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>387000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-2467000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2504000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>95000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>175000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-1904000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1423000000</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>9158000000</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
@@ -2792,11 +2906,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>12733000000</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2804,11 +2918,11 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>3386000000</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
@@ -2816,11 +2930,11 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>4074000000</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
@@ -2828,11 +2942,11 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>3032000000</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -2840,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>3704000000</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
       <c r="Z24">
         <v>0</v>
       </c>
@@ -2852,11 +2966,11 @@
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>3085000000</v>
       </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
       <c r="AD24">
         <v>0</v>
       </c>
@@ -2864,11 +2978,11 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>3276000000</v>
       </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
         <v>0</v>
       </c>
@@ -2876,277 +2990,280 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>2757000000</v>
       </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
         <v>3063000000</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:40">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
         <v>1646000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-3422000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>9936000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-4558000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1075000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-2019000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>14660000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3517000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1770000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3388000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>4058000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-456000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>807000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>599000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2436000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>83000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>126000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>6000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>3859000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>912000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-2047000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>174000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3993000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>789000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-740000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1800000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>1855000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>1329000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-1113000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-2135000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>5004000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>387000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-2467000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2504000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>2852000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>175000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-1904000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4486000000</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:40">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
         <v>16000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>19000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>33000000</v>
-      </c>
-      <c r="E26">
-        <v>12000000</v>
       </c>
       <c r="F26">
         <v>12000000</v>
       </c>
       <c r="G26">
+        <v>12000000</v>
+      </c>
+      <c r="H26">
         <v>13000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>22000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>14000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>11000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>21000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-3000000</v>
-      </c>
-      <c r="N26">
-        <v>12000000</v>
       </c>
       <c r="O26">
         <v>12000000</v>
       </c>
       <c r="P26">
+        <v>12000000</v>
+      </c>
+      <c r="Q26">
         <v>20000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>12000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>10000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>18000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>13000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>8000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>9000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>18000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>8000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>4000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>7000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>2000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>7000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>9000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>6000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>24000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>10000000</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
         <v>19000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>24000000</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
+        <v>569000000</v>
+      </c>
+      <c r="C27">
         <v>-209000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-195000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-165000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-168000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-167000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-168000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-167000000</v>
-      </c>
-      <c r="I27">
-        <v>-168000000</v>
       </c>
       <c r="J27">
         <v>-168000000</v>
@@ -3158,52 +3275,52 @@
         <v>-168000000</v>
       </c>
       <c r="M27">
+        <v>-168000000</v>
+      </c>
+      <c r="N27">
         <v>-158000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-162000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-148000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-149000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>-127000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-129000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>-107000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-108000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-89000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-90000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>-71000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-72000000</v>
-      </c>
-      <c r="Y27">
-        <v>-62000000</v>
       </c>
       <c r="Z27">
         <v>-62000000</v>
       </c>
       <c r="AA27">
+        <v>-62000000</v>
+      </c>
+      <c r="AB27">
         <v>-64000000</v>
-      </c>
-      <c r="AB27">
-        <v>-53000000</v>
       </c>
       <c r="AC27">
         <v>-53000000</v>
@@ -3215,642 +3332,648 @@
         <v>-53000000</v>
       </c>
       <c r="AF27">
-        <v>-55000000</v>
+        <v>-53000000</v>
       </c>
       <c r="AG27">
         <v>-55000000</v>
       </c>
       <c r="AH27">
+        <v>-55000000</v>
+      </c>
+      <c r="AI27">
         <v>-383000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-343000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-25000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>811000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-383000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-428000000</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
+        <v>0.2721</v>
+      </c>
+      <c r="C28">
         <v>0.477</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.6501</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-0.1976</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-0.0194</v>
       </c>
-      <c r="F28">
-        <v>-0.2937</v>
-      </c>
       <c r="G28">
+        <v>-0.2936</v>
+      </c>
+      <c r="H28">
         <v>-0.2179</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-0.2404</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-0.1925</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.0527</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>0.2129</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.8534</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.5675</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.5586</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>0.5099</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.5867</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.8221000000000001</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>0.6302</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>0.5061</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.4734</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.3985</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.5897</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.4735</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.4225</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.4619</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.6441</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.7028</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.6911</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.4595</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.1605</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.0569</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-0.1301</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.07199999999999999</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-0.0853</v>
-      </c>
-      <c r="AI28">
-        <v>-0.3043</v>
       </c>
       <c r="AJ28">
         <v>-0.3043</v>
       </c>
-      <c r="AL28">
+      <c r="AK28">
         <v>-0.3043</v>
       </c>
+      <c r="AM28">
+        <v>-0.3043</v>
+      </c>
     </row>
-    <row r="29" spans="1:39">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
         <v>2058000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-2859000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1082000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1060000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>623000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>-148000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-1412000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>100000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-154000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>-840000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-2052000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-124000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-299000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-580000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-191000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-184000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-858000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>37000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>117000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-308000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>393000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-736000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>263000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-210000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-62000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-231000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-79000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-243000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-96000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-1000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-270000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-274000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-215000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>133000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>252000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>608000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>-248000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>544000000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:40">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
         <v>23000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-4140000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-928000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-1127000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-130000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>129000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-1682000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-537000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>298000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>328000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-944000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>693000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>328000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>25000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-257000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>425000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>261000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-138000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>4000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>222000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-159000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>381000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-310000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-132000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-1307000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-607000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>142000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>106000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1590000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-766000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-495000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>243000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>208000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>163000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-3492000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-934000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-3948000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3153000000</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:40">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31">
         <v>-34000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-23000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-33000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-25000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-33000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-23000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-32000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-25000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-28000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-22000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-23000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-17000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-18000000</v>
-      </c>
-      <c r="O31">
-        <v>-15000000</v>
       </c>
       <c r="P31">
         <v>-15000000</v>
       </c>
       <c r="Q31">
+        <v>-15000000</v>
+      </c>
+      <c r="R31">
         <v>-7000000</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>-7000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-7000000</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
       <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>-7000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-7000000</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
       <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
         <v>-7000000</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
       <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
         <v>-7000000</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+    <row r="32" spans="1:40">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>-2000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-200000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-250000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>296000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-95000000</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>395000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-270000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>37000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-500000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-119000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>92000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-3000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-400000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>146000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-175000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-335000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-225000000</v>
-      </c>
-      <c r="W32">
-        <v>-130000000</v>
       </c>
       <c r="X32">
         <v>-130000000</v>
       </c>
       <c r="Y32">
+        <v>-130000000</v>
+      </c>
+      <c r="Z32">
         <v>-180000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-250000000</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
       <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
         <v>-250000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-3000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-334000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>-2000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-200000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-250000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>296000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-95000000</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>395000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-270000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>37000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-500000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-119000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>92000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-3000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-400000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>146000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-175000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-335000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-225000000</v>
-      </c>
-      <c r="W33">
-        <v>-130000000</v>
       </c>
       <c r="X33">
         <v>-130000000</v>
       </c>
       <c r="Y33">
+        <v>-130000000</v>
+      </c>
+      <c r="Z33">
         <v>-180000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-250000000</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
         <v>-250000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-3000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-334000000</v>
       </c>
     </row>
